--- a/public/LoanRelease-2023.xlsx
+++ b/public/LoanRelease-2023.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>ORO INTEGRATED COOPERATIVE - HEAD OFFICE</t>
   </si>
   <si>
-    <t>FOR THE YEAR OF 2023 - LOAN RELEASES PER PRODUCT</t>
+    <t>FOR THE MONTH OF JANUARY TO FEBRUARY 2023 - LOAN RELEASES PER PRODUCT</t>
   </si>
   <si>
     <t>PRODUCT</t>
@@ -41,12 +41,6 @@
     <t>Feb</t>
   </si>
   <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -56,7 +50,7 @@
     <t>Prepared By:</t>
   </si>
   <si>
-    <t>Neil Jehu J. Culaste</t>
+    <t>Rey Rafael H. Costemiano</t>
   </si>
   <si>
     <t>RELOAN</t>
@@ -191,37 +185,37 @@
     <t>1,493,700.00</t>
   </si>
   <si>
-    <t>156,000.00</t>
-  </si>
-  <si>
-    <t>2,700,000.00</t>
-  </si>
-  <si>
-    <t>420,000.00</t>
-  </si>
-  <si>
-    <t>480,000.00</t>
-  </si>
-  <si>
-    <t>4,200,000.00</t>
-  </si>
-  <si>
-    <t>7,800,000.00</t>
-  </si>
-  <si>
-    <t>106,200.00</t>
-  </si>
-  <si>
-    <t>1,006,200.00</t>
-  </si>
-  <si>
-    <t>3,600,000.00</t>
-  </si>
-  <si>
-    <t>682,200.00</t>
-  </si>
-  <si>
-    <t>8,962,200.00</t>
+    <t>78,000.00</t>
+  </si>
+  <si>
+    <t>1,350,000.00</t>
+  </si>
+  <si>
+    <t>210,000.00</t>
+  </si>
+  <si>
+    <t>240,000.00</t>
+  </si>
+  <si>
+    <t>2,100,000.00</t>
+  </si>
+  <si>
+    <t>3,900,000.00</t>
+  </si>
+  <si>
+    <t>53,100.00</t>
+  </si>
+  <si>
+    <t>503,100.00</t>
+  </si>
+  <si>
+    <t>1,800,000.00</t>
+  </si>
+  <si>
+    <t>341,100.00</t>
+  </si>
+  <si>
+    <t>4,481,100.00</t>
   </si>
 </sst>
 </file>
@@ -608,7 +602,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A74" sqref="A74"/>
@@ -624,26 +618,22 @@
     <col min="6" max="6" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="15" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:8">
       <c r="A3"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:8">
       <c r="A4"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -654,14 +644,8 @@
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -686,96 +670,60 @@
       <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0.0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0.0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0.0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0.0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0.0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
       <c r="C8">
         <v>0</v>
       </c>
@@ -794,23 +742,11 @@
       <c r="H8">
         <v>0.0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0.0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -830,205 +766,133 @@
       <c r="H9">
         <v>0.0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
         <v>14</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0.0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0.0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="B11" t="s">
-        <v>16</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11">
-        <v>18</v>
-      </c>
-      <c r="L11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12">
-        <v>6</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13">
-        <v>24</v>
-      </c>
-      <c r="L13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0.0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0.0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
       <c r="C15">
         <v>0</v>
       </c>
@@ -1047,22 +911,10 @@
       <c r="H15">
         <v>0.0</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1082,23 +934,11 @@
       <c r="H16">
         <v>0.0</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0.0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1118,61 +958,37 @@
       <c r="H17">
         <v>0.0</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0.0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0.0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0.0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0.0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
       <c r="C19">
         <v>0</v>
       </c>
@@ -1191,22 +1007,10 @@
       <c r="H19">
         <v>0.0</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0.0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:8">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1226,23 +1030,11 @@
       <c r="H20">
         <v>0.0</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0.0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="5"/>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1262,61 +1054,37 @@
       <c r="H21">
         <v>0.0</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0.0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0.0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0.0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0.0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0.0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
       <c r="C23">
         <v>0</v>
       </c>
@@ -1335,22 +1103,10 @@
       <c r="H23">
         <v>0.0</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0.0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+    </row>
+    <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1370,23 +1126,11 @@
       <c r="H24">
         <v>0.0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0.0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1406,61 +1150,37 @@
       <c r="H25">
         <v>0.0</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0.0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0.0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0.0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0.0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0.0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
       <c r="C27">
         <v>0</v>
       </c>
@@ -1479,22 +1199,10 @@
       <c r="H27">
         <v>0.0</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0.0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1514,23 +1222,11 @@
       <c r="H28">
         <v>0.0</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0.0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1550,205 +1246,133 @@
       <c r="H29">
         <v>0.0</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0.0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H30" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-      <c r="J30" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30">
-        <v>12</v>
-      </c>
-      <c r="L30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31">
-        <v>8</v>
-      </c>
-      <c r="J31" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31">
-        <v>48</v>
-      </c>
-      <c r="L31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="B32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>51</v>
-      </c>
-      <c r="K32">
-        <v>12</v>
-      </c>
-      <c r="L32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="5"/>
       <c r="B33" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E33">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G33">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="H33" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33">
-        <v>12</v>
-      </c>
-      <c r="J33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K33">
-        <v>72</v>
-      </c>
-      <c r="L33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0.0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0.0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0.0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0.0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0.0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0.0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
       <c r="C35">
         <v>0</v>
       </c>
@@ -1767,22 +1391,10 @@
       <c r="H35">
         <v>0.0</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0.0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+    </row>
+    <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1802,23 +1414,11 @@
       <c r="H36">
         <v>0.0</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0.0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="5"/>
       <c r="B37" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1838,61 +1438,37 @@
       <c r="H37">
         <v>0.0</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0.0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0.0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0.0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" t="s">
         <v>14</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0.0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0.0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0.0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0.0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
       <c r="C39">
         <v>0</v>
       </c>
@@ -1911,22 +1487,10 @@
       <c r="H39">
         <v>0.0</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0.0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+    </row>
+    <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1946,23 +1510,11 @@
       <c r="H40">
         <v>0.0</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0.0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1982,61 +1534,37 @@
       <c r="H41">
         <v>0.0</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0.0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0.0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0.0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" t="s">
         <v>14</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0.0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0.0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0.0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0.0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="B43" t="s">
-        <v>16</v>
-      </c>
       <c r="C43">
         <v>0</v>
       </c>
@@ -2055,22 +1583,10 @@
       <c r="H43">
         <v>0.0</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0.0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+    </row>
+    <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2090,23 +1606,11 @@
       <c r="H44">
         <v>0.0</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0.0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="5"/>
       <c r="B45" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2126,61 +1630,37 @@
       <c r="H45">
         <v>0.0</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0.0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0.0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" t="s">
         <v>14</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0.0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0.0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0.0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0.0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
       <c r="C47">
         <v>0</v>
       </c>
@@ -2199,22 +1679,10 @@
       <c r="H47">
         <v>0.0</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0.0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+    </row>
+    <row r="48" spans="1:8">
       <c r="B48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2234,23 +1702,11 @@
       <c r="H48">
         <v>0.0</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0.0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="5"/>
       <c r="B49" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2270,61 +1726,37 @@
       <c r="H49">
         <v>0.0</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0.0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0.0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0.0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" t="s">
         <v>14</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0.0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0.0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0.0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0.0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
       <c r="C51">
         <v>0</v>
       </c>
@@ -2343,22 +1775,10 @@
       <c r="H51">
         <v>0.0</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0.0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+    </row>
+    <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2378,23 +1798,11 @@
       <c r="H52">
         <v>0.0</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0.0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="5"/>
       <c r="B53" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2414,61 +1822,37 @@
       <c r="H53">
         <v>0.0</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0.0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0.0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0.0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" t="s">
         <v>14</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0.0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0.0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0.0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0.0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="B55" t="s">
-        <v>16</v>
-      </c>
       <c r="C55">
         <v>0</v>
       </c>
@@ -2487,22 +1871,10 @@
       <c r="H55">
         <v>0.0</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0.0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+    </row>
+    <row r="56" spans="1:8">
       <c r="B56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2522,23 +1894,11 @@
       <c r="H56">
         <v>0.0</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0.0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="5"/>
       <c r="B57" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2558,95 +1918,59 @@
       <c r="H57">
         <v>0.0</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0.0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0.0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0.0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" t="s">
         <v>14</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0.0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0.0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0.0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0.0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="B59" t="s">
-        <v>16</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>53</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>53</v>
-      </c>
-      <c r="K59">
-        <v>6</v>
-      </c>
-      <c r="L59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="B60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2666,97 +1990,61 @@
       <c r="H60">
         <v>0.0</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0.0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="5"/>
       <c r="B61" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>53</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>53</v>
-      </c>
-      <c r="K61">
-        <v>6</v>
-      </c>
-      <c r="L61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0.0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0.0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" t="s">
         <v>14</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0.0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0.0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0.0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0.0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="B63" t="s">
-        <v>16</v>
-      </c>
       <c r="C63">
         <v>0</v>
       </c>
@@ -2775,22 +2063,10 @@
       <c r="H63">
         <v>0.0</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0.0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+    </row>
+    <row r="64" spans="1:8">
       <c r="B64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2810,23 +2086,11 @@
       <c r="H64">
         <v>0.0</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0.0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="5"/>
       <c r="B65" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2846,95 +2110,59 @@
       <c r="H65">
         <v>0.0</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0.0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0.0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0.0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" t="s">
         <v>14</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0.0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0.0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0.0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0.0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="B67" t="s">
-        <v>16</v>
       </c>
       <c r="C67">
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E67">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>54</v>
-      </c>
-      <c r="I67">
-        <v>4</v>
-      </c>
-      <c r="J67" t="s">
-        <v>54</v>
-      </c>
-      <c r="K67">
-        <v>24</v>
-      </c>
-      <c r="L67" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="B68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2954,97 +2182,61 @@
       <c r="H68">
         <v>0.0</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0.0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="5"/>
       <c r="B69" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C69">
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E69">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>54</v>
-      </c>
-      <c r="I69">
-        <v>4</v>
-      </c>
-      <c r="J69" t="s">
-        <v>54</v>
-      </c>
-      <c r="K69">
-        <v>24</v>
-      </c>
-      <c r="L69" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0.0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0.0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" t="s">
         <v>14</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0.0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0.0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0.0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0.0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="B71" t="s">
-        <v>16</v>
-      </c>
       <c r="C71">
         <v>0</v>
       </c>
@@ -3063,22 +2255,10 @@
       <c r="H71">
         <v>0.0</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0.0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+    </row>
+    <row r="72" spans="1:8">
       <c r="B72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3098,23 +2278,11 @@
       <c r="H72">
         <v>0.0</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0.0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="5"/>
       <c r="B73" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3134,170 +2302,110 @@
       <c r="H73">
         <v>0.0</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0.0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C74">
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H74" t="s">
-        <v>49</v>
-      </c>
-      <c r="I74">
-        <v>2</v>
-      </c>
-      <c r="J74" t="s">
-        <v>49</v>
-      </c>
-      <c r="K74">
-        <v>12</v>
-      </c>
-      <c r="L74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="B75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C75">
         <v>32</v>
       </c>
       <c r="D75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E75">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G75">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="H75" t="s">
-        <v>55</v>
-      </c>
-      <c r="I75">
-        <v>16</v>
-      </c>
-      <c r="J75" t="s">
-        <v>55</v>
-      </c>
-      <c r="K75">
-        <v>96</v>
-      </c>
-      <c r="L75" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="B76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C76">
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H76" t="s">
-        <v>56</v>
-      </c>
-      <c r="I76">
-        <v>3</v>
-      </c>
-      <c r="J76" t="s">
-        <v>56</v>
-      </c>
-      <c r="K76">
-        <v>18</v>
-      </c>
-      <c r="L76" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="B77" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77">
         <v>42</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E77">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G77">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H77" t="s">
-        <v>57</v>
-      </c>
-      <c r="I77">
-        <v>21</v>
-      </c>
-      <c r="J77" t="s">
-        <v>57</v>
-      </c>
-      <c r="K77">
-        <v>126</v>
-      </c>
-      <c r="L77" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3307,8 +2415,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
